--- a/mbs-perturbation/bottleneck/multinomialNB/bottleneck-multinomialNB-results.xlsx
+++ b/mbs-perturbation/bottleneck/multinomialNB/bottleneck-multinomialNB-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09547738693467336</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5813953488372093</v>
+        <v>0.65906362545018</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2271559633027523</v>
+        <v>0.4881174899866488</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5813953488372092</v>
+        <v>0.6590636254501802</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1162790697674419</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6296205630354957</v>
+        <v>0.818577430972389</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4169763513513514</v>
+        <v>0.6972800784121539</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6296205630354957</v>
+        <v>0.818577430972389</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.425</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6653746770025839</v>
+        <v>0.941025641025641</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4083832833832833</v>
+        <v>0.7669104641713275</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6653746770025839</v>
+        <v>0.941025641025641</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1443298969072165</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6958656330749354</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4978075065031587</v>
+        <v>0.7239583333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6958656330749353</v>
+        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07575757575757576</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4940568475452196</v>
+        <v>0.7864253393665159</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3609704641350211</v>
+        <v>0.8206429780033841</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4940568475452196</v>
+        <v>0.7864253393665159</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1098981976380874</v>
+        <v>0.406880359282375</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6132626138990889</v>
+        <v>0.8256337919783299</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3822587137351133</v>
+        <v>0.6993818687813695</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6132626138990889</v>
+        <v>0.8256337919783299</v>
       </c>
     </row>
   </sheetData>
